--- a/Documents/MetaDataWorkSheet.xlsx
+++ b/Documents/MetaDataWorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_BISolutions\StudentEnrollmentProjects\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE9739A-B420-4929-B449-14CA36F116BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38D5D5-32E2-4242-BF63-DC3346D91ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{4BE78F13-CB94-48EA-B791-CEDC2BFB6A89}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{4BE78F13-CB94-48EA-B791-CEDC2BFB6A89}"/>
   </bookViews>
   <sheets>
     <sheet name="SourceAndDestinationMetaData" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="198">
   <si>
     <t>Fill this column in!</t>
   </si>
@@ -556,39 +556,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>DateDayKey</t>
-  </si>
-  <si>
-    <t>DateDayName</t>
-  </si>
-  <si>
-    <t>DateMonthKey</t>
-  </si>
-  <si>
-    <t>DateMonthName</t>
-  </si>
-  <si>
-    <t>DateQuarterKey</t>
-  </si>
-  <si>
-    <t>DateQuarterName</t>
-  </si>
-  <si>
-    <t>DateQuarter</t>
-  </si>
-  <si>
-    <t>DateYearMonthKey</t>
-  </si>
-  <si>
-    <t>DateYearMonthName</t>
-  </si>
-  <si>
-    <t>DateYearKey</t>
-  </si>
-  <si>
-    <t>DateYearName</t>
-  </si>
-  <si>
     <t>[Students]</t>
   </si>
   <si>
@@ -640,10 +607,28 @@
     <t>Sample Source Data</t>
   </si>
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
     <t>DWStudentEnrollments.dbo.DimDates.DateTime</t>
+  </si>
+  <si>
+    <t>FullDateTime</t>
+  </si>
+  <si>
+    <t>MonthKey</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>QuarterKey</t>
+  </si>
+  <si>
+    <t>QuarterName</t>
+  </si>
+  <si>
+    <t>YearKey</t>
+  </si>
+  <si>
+    <t>YearName</t>
   </si>
 </sst>
 </file>
@@ -1222,11 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F5AB7C-8980-46B9-9960-57BE66A6B232}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2258,7 +2243,7 @@
         <v>139</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>14</v>
@@ -2345,7 +2330,7 @@
         <v>139</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G39" s="22" t="s">
         <v>12</v>
@@ -2374,7 +2359,7 @@
         <v>139</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>134</v>
@@ -2403,7 +2388,7 @@
         <v>139</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G41" s="22" t="s">
         <v>12</v>
@@ -2432,7 +2417,7 @@
         <v>139</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G42" s="22" t="s">
         <v>134</v>
@@ -2461,7 +2446,7 @@
         <v>139</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G43" s="22" t="s">
         <v>12</v>
@@ -2490,7 +2475,7 @@
         <v>139</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>134</v>
@@ -2499,180 +2484,6 @@
         <v>109</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I50" s="22" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3643,7 +3454,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>17</v>
@@ -3941,7 +3752,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="30.6">
       <c r="A1" s="29" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -3975,38 +3786,38 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="34" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B3" s="34">
         <v>1</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="34" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B4" s="34">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -4039,13 +3850,13 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="34" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B7" s="34">
         <v>1</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -4092,13 +3903,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="34" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B10" s="34">
         <v>1</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D10" s="34">
         <v>1</v>
@@ -4121,13 +3932,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="34" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B11" s="34">
         <v>2</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D11" s="34">
         <v>1</v>
@@ -4178,13 +3989,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="34" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B14" s="34">
         <v>1</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D14" s="34">
         <v>20</v>
@@ -4195,13 +4006,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="34" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B15" s="34">
         <v>2</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D15" s="34">
         <v>30</v>
@@ -4244,7 +4055,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="34" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B18" s="34">
         <v>1</v>
@@ -4265,7 +4076,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="34" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B19" s="34">
         <v>2</v>
